--- a/pred_ohlcv/54_21/2020-01-24 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 ETH ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>962.678385472429</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>962.155885472429</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>923.874085472429</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>930.177385472429</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>997.8117854724291</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>988.7749854724291</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>990.4919854724291</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>989.493885472429</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>989.493885472429</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>989.493885472429</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>988.742685472429</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>988.868585472429</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>988.868585472429</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>987.959185472429</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1000.159085472429</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1001.588885472429</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>997.8109854724289</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>997.8109854724289</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>988.9782854724289</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>988.9782854724289</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>986.9782854724289</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>987.7741854724288</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>987.7741854724288</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>986.9311854724289</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>986.9311854724289</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>986.9311854724289</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>984.8239854724288</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>984.3126854724288</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>984.3126854724288</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>984.3126854724288</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>984.3226854724288</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>990.0351854724288</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>992.2092854724287</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>992.2092854724287</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1132.209285472429</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1129.009285472429</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1129.009285472429</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1128.222085472429</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1128.337085472429</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1133.531765326671</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1133.531765326671</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1063.531765326671</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1064.674565326671</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1060.674565326671</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1061.227667877426</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1057.391667877426</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1062.147167877426</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1062.147167877426</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1062.925267877426</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1057.309267877426</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1001.167667877426</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1078.315467877426</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1088.330467877426</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1109.965467877426</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1085.386067877426</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1085.389867877426</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1081.889867877426</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1071.131067877426</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1072.692754498977</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1074.925354498977</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1043.216954498977</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1043.216954498977</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1001.381254498977</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1001.610154498977</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1001.409754498977</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1001.350454498977</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1001.350454498977</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>988.7147544989772</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>916.1439544989772</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>916.1439544989772</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>977.9934544989773</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>977.9934544989773</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>999.2231544989772</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>995.2595544989772</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>973.6245544989772</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>983.7857544989772</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>983.7857544989772</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>986.2048544989772</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>986.2048544989772</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>986.2048544989772</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>986.0443544989772</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>993.2213544989772</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>996.6707544989772</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>996.6707544989772</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>996.6707544989772</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>949.0582544989772</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>948.9346544989772</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>954.9346544989772</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>957.9483544989772</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>957.9483544989772</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>957.9483544989772</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>957.9483544989772</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>971.2410544989772</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>952.4550544989772</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>940.2289544989773</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>940.2289544989773</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>928.2934544989772</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>928.2934544989772</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>928.5434544989772</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>928.5434544989772</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>919.5825544989772</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>920.9204544989772</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>920.7604544989772</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>946.7449694080681</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>942.7395694080681</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>943.3408694080681</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>943.3408694080681</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>943.3408694080681</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>943.2882694080681</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>943.2882694080681</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>943.6421694080681</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>943.6421694080681</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>942.551269408068</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>969.635269408068</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>969.635269408068</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>969.635269408068</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>969.635269408068</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>969.635269408068</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>963.635269408068</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>963.635269408068</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>963.7131101989108</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>945.9169101989108</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>884.2928101989108</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>884.2928101989108</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>884.2928101989108</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>867.3425101989109</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>742.6992075485396</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>761.9854075485396</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>762.0907075485396</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>762.1028075485397</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>755.8567075485397</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>827.31829410098</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>820.19809410098</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>820.19809410098</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>820.19809410098</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>888.08219410098</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>845.2930941009801</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>846.57849410098</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>845.28499410098</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>861.4686941009801</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>864.2640941009801</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>864.2640941009801</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>863.28919410098</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>863.28919410098</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>860.58329410098</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>860.58329410098</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>860.58329410098</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>848.62659410098</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>838.4343941009801</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>838.58439410098</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>820.2364941009801</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>829.3129941009801</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>759.83849410098</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>570.49469410098</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>599.6896941009801</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>568.1847941009801</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-434.0839856058619</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-434.0839856058619</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-432.2695306295586</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-435.1355306295586</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-429.2848288391426</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-429.2848288391426</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-405.8533288391426</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-405.8533288391426</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-405.8571288391426</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-389.0390183128268</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-405.1193183128268</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-405.1193183128268</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-345.7545183128268</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-345.7545183128268</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-435.0428723412628</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-435.0428723412628</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-432.2380723412628</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-431.8018723412628</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-431.8018723412628</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-431.8892723412628</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-431.7133723412628</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-431.7133723412628</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-441.7675723412628</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-441.7675723412628</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-441.7675723412628</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-436.9245723412628</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-436.9245723412628</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-436.9245723412628</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-436.9245723412628</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-436.9245723412628</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-435.1649723412628</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-460.1362723412628</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-460.1362723412628</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-456.7022723412628</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-456.7022723412628</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-456.7022723412628</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-456.7022723412628</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-458.2799723412627</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-1279.573351590257</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-1279.573351590257</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-1267.587951590257</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-1267.587951590257</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-1273.552451590257</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-1272.568351590257</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-1307.451051590257</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-1292.571751590257</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-1286.786490100558</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-1160.1901365839</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-1188.1620365839</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-1186.4461154739</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-1186.4461154739</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-1186.4461154739</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-1190.3961154739</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-1209.4599154739</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-1209.4599154739</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-1207.4599154739</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-1215.7729154739</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-1215.7729154739</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-1218.2437154739</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-1207.0311154739</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-1207.0311154739</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-1207.0311154739</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-1202.7818154739</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-1202.7818154739</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-1228.8593154739</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-1174.6246154739</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-1156.7669154739</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-1156.7669154739</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-1182.8445154739</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-1182.8445154739</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-1184.3872154739</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-1184.3872154739</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-1195.3570154739</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-1188.4332040935</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-1111.7837040935</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-1096.231137584811</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-1113.097612018126</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-1225.789789836883</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-1148.893889836883</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-1148.893889836883</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-1112.614289836883</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-1092.630054419122</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-1153.130054419122</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-1193.099554419121</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-1262.041754419121</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-1414.279654419121</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-1385.711654419121</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-1385.711654419121</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-1404.698554419122</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-1404.698554419122</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-2874.632419743815</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-2890.251619743815</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-2890.251619743815</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-2890.675519743815</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-2926.205319743814</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-2926.205319743814</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-2725.305795043431</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-2720.165695043431</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-2720.165695043431</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-2717.476795043431</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-2720.956095043431</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-2739.726395043431</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-2819.401995043431</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-2806.517395043431</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-2716.026595043431</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-2716.026595043431</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-2657.773795043431</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-2653.857395043431</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-2387.056995043431</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-2348.36289504343</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-2493.336495043431</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-2493.336495043431</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-2493.336495043431</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-2460.134895043431</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-2591.789295043431</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-2502.010895043431</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-2449.278895043431</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-2535.962195043431</v>
       </c>
       <c r="H1008">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-2535.962195043431</v>
       </c>
       <c r="H1009">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-2509.724595043431</v>
       </c>
       <c r="H1014">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-2513.225695043431</v>
       </c>
       <c r="H1015">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-2525.209895043431</v>
       </c>
       <c r="H1016">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-2507.447495043431</v>
       </c>
       <c r="H1017">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-2507.447495043431</v>
       </c>
       <c r="H1018">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-2507.447495043431</v>
       </c>
       <c r="H1019">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-24 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 ETH ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>779.0944115820892</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>779.0944115820892</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>767.4625115820892</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>773.9673115820892</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>769.5611115820892</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -730,7 +730,7 @@
         <v>848.5622115820894</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>848.5622115820894</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,7 +860,7 @@
         <v>841.5622854724289</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>838.9903854724289</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>838.9903854724289</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>837.8735854724289</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>837.8735854724289</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>837.7325854724289</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>922.678385472429</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>962.678385472429</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>962.155885472429</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>923.874085472429</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>930.177385472429</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>997.8117854724291</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>988.7749854724291</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>990.4919854724291</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>989.493885472429</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>989.493885472429</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>989.493885472429</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>988.742685472429</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>988.868585472429</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>988.868585472429</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>987.959185472429</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1000.159085472429</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1001.588885472429</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>997.8109854724289</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>997.8109854724289</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>988.9782854724289</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>988.9782854724289</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>986.9782854724289</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>987.7741854724288</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>987.7741854724288</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>986.9311854724289</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>986.9311854724289</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>986.9311854724289</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>984.8239854724288</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>984.3126854724288</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>984.3126854724288</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>984.3126854724288</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>984.3226854724288</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>990.0351854724288</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>992.2092854724287</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>992.2092854724287</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1132.209285472429</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1129.009285472429</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1129.009285472429</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1128.222085472429</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1128.337085472429</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1133.531765326671</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1133.531765326671</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1063.531765326671</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1064.674565326671</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1060.674565326671</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1061.227667877426</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1057.391667877426</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1062.147167877426</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1062.147167877426</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1062.925267877426</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1057.309267877426</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1001.167667877426</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1088.197767877426</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1092.543967877426</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1092.448767877426</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1092.261667877426</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1092.655767877426</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1092.655767877426</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1092.655767877426</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1090.271267877426</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1090.271267877426</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1090.271267877426</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1090.271267877426</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1078.315467877426</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1080.544567877426</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1080.544567877426</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1101.428767877426</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1101.428767877426</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1088.330467877426</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1109.965467877426</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1085.386067877426</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1085.389867877426</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1081.889867877426</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1071.131067877426</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1072.692754498977</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1074.925354498977</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1043.216954498977</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1043.216954498977</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1001.381254498977</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1001.610154498977</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1001.409754498977</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1001.350454498977</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1001.350454498977</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>988.7147544989772</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>916.1439544989772</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>916.1439544989772</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>977.9934544989773</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>977.9934544989773</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>982.3781544989772</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>999.2231544989772</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>995.2595544989772</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>973.6245544989772</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>977.8728544989772</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>977.8728544989772</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>983.7857544989772</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>983.7857544989772</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>983.7857544989772</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>983.7857544989772</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>986.3259544989772</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>986.0737544989772</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>986.0737544989772</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>986.0737544989772</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>986.2048544989772</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>986.2048544989772</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>986.2048544989772</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>986.2048544989772</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>986.0443544989772</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>993.2213544989772</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>996.6707544989772</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>996.6707544989772</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>996.6707544989772</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>949.0582544989772</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>948.9346544989772</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>954.9346544989772</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>957.9483544989772</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>957.9483544989772</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>957.9483544989772</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>957.9483544989772</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>971.2410544989772</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>952.4550544989772</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>940.2289544989773</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>940.2289544989773</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>928.2934544989772</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>928.2934544989772</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>928.5434544989772</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>928.5434544989772</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>919.5825544989772</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>920.9204544989772</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>920.7604544989772</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>946.7449694080681</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>942.7395694080681</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>943.3408694080681</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>943.3408694080681</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>943.3408694080681</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>943.2882694080681</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>943.2882694080681</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>943.6421694080681</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>943.6421694080681</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>942.551269408068</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>969.635269408068</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>969.635269408068</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>969.635269408068</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>969.635269408068</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>969.635269408068</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>963.635269408068</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>963.635269408068</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>963.7131101989108</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>945.9169101989108</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>884.2928101989108</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>884.2928101989108</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>884.2928101989108</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>867.3425101989109</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>866.4744101989108</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>739.7819101989109</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>746.8426101989108</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>755.4345101989109</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>753.5065101989109</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>760.6002101989109</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>760.6002101989109</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>761.5890075485396</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>761.5890075485396</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>761.3790075485396</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>761.3790075485396</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>761.4750075485396</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>731.4002075485396</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>731.4002075485396</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>731.4002075485396</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>731.4433075485396</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>731.4433075485396</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>731.4433075485396</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>731.4433075485396</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>731.4433075485396</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>731.4433075485396</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>727.1576075485395</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>771.7851075485396</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>771.7851075485396</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>777.1423075485396</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>776.5732075485396</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>778.2762075485396</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>778.2762075485396</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>778.2762075485396</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>779.8962075485396</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>779.8962075485396</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>742.6992075485396</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>742.6992075485396</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>761.9854075485396</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>762.0907075485396</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>762.1028075485397</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>755.8567075485397</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>827.31829410098</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>820.19809410098</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>820.19809410098</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>820.19809410098</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>888.08219410098</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>845.2930941009801</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>846.57849410098</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>845.28499410098</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>861.4686941009801</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>864.2640941009801</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>864.2640941009801</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>863.28919410098</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>863.28919410098</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>860.58329410098</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>860.58329410098</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>860.58329410098</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>848.62659410098</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>838.4343941009801</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>838.58439410098</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>820.2364941009801</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>829.3129941009801</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>759.83849410098</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>730.9908941009801</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>733.1050941009801</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>570.49469410098</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>599.6896941009801</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>568.1847941009801</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>435.5839941009801</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>443.9518941009801</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>443.9518941009801</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>461.9061941009801</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>458.2603941009801</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>458.3433941009801</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>407.5665941009801</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>287.8115941009801</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>287.8115941009801</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-434.0839856058619</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-434.0839856058619</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-432.2695306295586</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-435.1355306295586</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-429.2848288391426</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-429.2848288391426</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-405.8533288391426</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-405.8533288391426</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-405.8571288391426</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-389.0390183128268</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-405.1193183128268</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-405.1193183128268</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-345.7545183128268</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-345.7545183128268</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-435.0428723412628</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-435.0428723412628</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-432.2380723412628</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-431.8018723412628</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-431.8018723412628</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-431.8892723412628</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-431.7133723412628</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-431.7133723412628</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-441.7675723412628</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-441.7675723412628</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-441.7675723412628</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-436.9245723412628</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-436.9245723412628</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-436.9245723412628</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-436.9245723412628</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-436.9245723412628</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-435.1649723412628</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-460.1362723412628</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-460.1362723412628</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-456.7022723412628</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-456.7022723412628</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-456.7022723412628</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-456.7022723412628</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-458.2799723412627</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-1279.573351590257</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-1279.573351590257</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-1267.587951590257</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-1267.587951590257</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-1273.552451590257</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-1272.568351590257</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-1307.451051590257</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-1292.571751590257</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-1286.786490100558</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-1160.1901365839</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-1188.1620365839</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-1186.4461154739</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-1186.4461154739</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-1186.4461154739</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-1190.3961154739</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-1209.4599154739</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-1209.4599154739</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-1207.4599154739</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-1215.7729154739</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-1215.7729154739</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-1218.2437154739</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-1207.0311154739</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-1207.0311154739</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-1207.0311154739</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-1202.7818154739</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-1202.7818154739</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-1228.8593154739</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-1174.6246154739</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-1156.7669154739</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-1156.7669154739</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-1182.8445154739</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-1182.8445154739</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-1184.3872154739</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-1184.3872154739</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-1195.3570154739</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-1188.4332040935</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-1111.7837040935</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-1096.231137584811</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-1113.097612018126</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-1225.789789836883</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-1148.893889836883</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-1148.893889836883</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-1112.614289836883</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-1092.630054419122</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-1153.130054419122</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-1193.099554419121</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-1262.041754419121</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-1414.279654419121</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-1385.711654419121</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-1385.711654419121</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-1404.698554419122</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-1404.698554419122</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-2874.632419743815</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-2890.251619743815</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-2890.251619743815</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-2890.675519743815</v>
       </c>
       <c r="H908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-2926.205319743814</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-2926.205319743814</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-2725.305795043431</v>
       </c>
       <c r="H965">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-2720.165695043431</v>
       </c>
       <c r="H966">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-2720.165695043431</v>
       </c>
       <c r="H967">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-2717.476795043431</v>
       </c>
       <c r="H968">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-2720.956095043431</v>
       </c>
       <c r="H969">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-2739.726395043431</v>
       </c>
       <c r="H970">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-2819.401995043431</v>
       </c>
       <c r="H971">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-2806.517395043431</v>
       </c>
       <c r="H972">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-2716.026595043431</v>
       </c>
       <c r="H973">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-2716.026595043431</v>
       </c>
       <c r="H974">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-2657.773795043431</v>
       </c>
       <c r="H975">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-2653.857395043431</v>
       </c>
       <c r="H976">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-2387.056995043431</v>
       </c>
       <c r="H977">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-2348.36289504343</v>
       </c>
       <c r="H983">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-2493.336495043431</v>
       </c>
       <c r="H995">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-2493.336495043431</v>
       </c>
       <c r="H996">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-2493.336495043431</v>
       </c>
       <c r="H997">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-2460.134895043431</v>
       </c>
       <c r="H998">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-2591.789295043431</v>
       </c>
       <c r="H999">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-2502.010895043431</v>
       </c>
       <c r="H1002">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-2449.278895043431</v>
       </c>
       <c r="H1003">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-2535.962195043431</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-2535.962195043431</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-2509.724595043431</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-2513.225695043431</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-2525.209895043431</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-2507.447495043431</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-2507.447495043431</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-2507.447495043431</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
